--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H2">
         <v>1.691493</v>
       </c>
       <c r="I2">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J2">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5314143333333333</v>
+        <v>0.8630909999999999</v>
       </c>
       <c r="N2">
-        <v>1.594243</v>
+        <v>2.589273</v>
       </c>
       <c r="O2">
-        <v>0.01762280440365445</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="P2">
-        <v>0.01762280440365445</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="Q2">
-        <v>0.2996278749776667</v>
+        <v>0.486637461621</v>
       </c>
       <c r="R2">
-        <v>2.696650874799</v>
+        <v>4.379737154589</v>
       </c>
       <c r="S2">
-        <v>0.01409092770623876</v>
+        <v>0.01578065852420455</v>
       </c>
       <c r="T2">
-        <v>0.01409092770623876</v>
+        <v>0.01578065852420455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H3">
         <v>1.691493</v>
       </c>
       <c r="I3">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J3">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>74.184296</v>
       </c>
       <c r="O3">
-        <v>0.8200351754599551</v>
+        <v>0.833143872773158</v>
       </c>
       <c r="P3">
-        <v>0.820035175459955</v>
+        <v>0.8331438727731579</v>
       </c>
       <c r="Q3">
-        <v>13.94246859932534</v>
+        <v>13.94246859932533</v>
       </c>
       <c r="R3">
         <v>125.482217393928</v>
       </c>
       <c r="S3">
-        <v>0.6556877162855458</v>
+        <v>0.4521257677481337</v>
       </c>
       <c r="T3">
-        <v>0.6556877162855457</v>
+        <v>0.4521257677481338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5638310000000001</v>
+        <v>0.563831</v>
       </c>
       <c r="H4">
         <v>1.691493</v>
       </c>
       <c r="I4">
-        <v>0.7995848664879195</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J4">
-        <v>0.7995848664879194</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.895411333333333</v>
+        <v>4.080109666666666</v>
       </c>
       <c r="N4">
-        <v>14.686234</v>
+        <v>12.240329</v>
       </c>
       <c r="O4">
-        <v>0.1623420201363905</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="P4">
-        <v>0.1623420201363905</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="Q4">
-        <v>2.760184667484667</v>
+        <v>2.300492313466333</v>
       </c>
       <c r="R4">
-        <v>24.841662007362</v>
+        <v>20.704430821197</v>
       </c>
       <c r="S4">
-        <v>0.1298062224961349</v>
+        <v>0.07460026508325623</v>
       </c>
       <c r="T4">
-        <v>0.1298062224961349</v>
+        <v>0.07460026508325625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1413236666666667</v>
+        <v>0.563831</v>
       </c>
       <c r="H5">
-        <v>0.423971</v>
+        <v>1.691493</v>
       </c>
       <c r="I5">
-        <v>0.2004151335120805</v>
+        <v>0.5426742997499485</v>
       </c>
       <c r="J5">
-        <v>0.2004151335120805</v>
+        <v>0.5426742997499486</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5314143333333333</v>
+        <v>0.009167</v>
       </c>
       <c r="N5">
-        <v>1.594243</v>
+        <v>0.027501</v>
       </c>
       <c r="O5">
-        <v>0.01762280440365445</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="P5">
-        <v>0.01762280440365445</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="Q5">
-        <v>0.07510142210588888</v>
+        <v>0.005168638777</v>
       </c>
       <c r="R5">
-        <v>0.675912798953</v>
+        <v>0.046517748993</v>
       </c>
       <c r="S5">
-        <v>0.003531876697415687</v>
+        <v>0.0001676083943539941</v>
       </c>
       <c r="T5">
-        <v>0.003531876697415687</v>
+        <v>0.0001676083943539941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1413236666666667</v>
+        <v>0.05363299999999999</v>
       </c>
       <c r="H6">
-        <v>0.423971</v>
+        <v>0.160899</v>
       </c>
       <c r="I6">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695133</v>
       </c>
       <c r="J6">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695134</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.72809866666667</v>
+        <v>0.8630909999999999</v>
       </c>
       <c r="N6">
-        <v>74.184296</v>
+        <v>2.589273</v>
       </c>
       <c r="O6">
-        <v>0.8200351754599551</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="P6">
-        <v>0.820035175459955</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="Q6">
-        <v>3.494665573268444</v>
+        <v>0.04629015960299999</v>
       </c>
       <c r="R6">
-        <v>31.451990159416</v>
+        <v>0.4166114364269999</v>
       </c>
       <c r="S6">
-        <v>0.1643474591744093</v>
+        <v>0.001501095290306248</v>
       </c>
       <c r="T6">
-        <v>0.1643474591744093</v>
+        <v>0.001501095290306249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1413236666666667</v>
+        <v>0.05363299999999999</v>
       </c>
       <c r="H7">
-        <v>0.423971</v>
+        <v>0.160899</v>
       </c>
       <c r="I7">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695133</v>
       </c>
       <c r="J7">
-        <v>0.2004151335120805</v>
+        <v>0.05162052231695134</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.895411333333333</v>
+        <v>24.72809866666667</v>
       </c>
       <c r="N7">
-        <v>14.686234</v>
+        <v>74.184296</v>
       </c>
       <c r="O7">
-        <v>0.1623420201363905</v>
+        <v>0.833143872773158</v>
       </c>
       <c r="P7">
-        <v>0.1623420201363905</v>
+        <v>0.8331438727731579</v>
       </c>
       <c r="Q7">
-        <v>0.691837479468222</v>
+        <v>1.326242115789333</v>
       </c>
       <c r="R7">
-        <v>6.226537315213999</v>
+        <v>11.936179042104</v>
       </c>
       <c r="S7">
-        <v>0.03253579764025557</v>
+        <v>0.04300732187771807</v>
       </c>
       <c r="T7">
-        <v>0.03253579764025557</v>
+        <v>0.04300732187771807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05363299999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.160899</v>
+      </c>
+      <c r="I8">
+        <v>0.05162052231695133</v>
+      </c>
+      <c r="J8">
+        <v>0.05162052231695134</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.080109666666666</v>
+      </c>
+      <c r="N8">
+        <v>12.240329</v>
+      </c>
+      <c r="O8">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="P8">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="Q8">
+        <v>0.2188285217523333</v>
+      </c>
+      <c r="R8">
+        <v>1.969456695771</v>
+      </c>
+      <c r="S8">
+        <v>0.007096161823685255</v>
+      </c>
+      <c r="T8">
+        <v>0.007096161823685256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05363299999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.160899</v>
+      </c>
+      <c r="I9">
+        <v>0.05162052231695133</v>
+      </c>
+      <c r="J9">
+        <v>0.05162052231695134</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.009167</v>
+      </c>
+      <c r="N9">
+        <v>0.027501</v>
+      </c>
+      <c r="O9">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="P9">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="Q9">
+        <v>0.000491653711</v>
+      </c>
+      <c r="R9">
+        <v>0.004424883399</v>
+      </c>
+      <c r="S9">
+        <v>1.594332524176174E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.594332524176174E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.421522</v>
+      </c>
+      <c r="H10">
+        <v>1.264566</v>
+      </c>
+      <c r="I10">
+        <v>0.4057051779331001</v>
+      </c>
+      <c r="J10">
+        <v>0.4057051779331002</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8630909999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.589273</v>
+      </c>
+      <c r="O10">
+        <v>0.029079428547613</v>
+      </c>
+      <c r="P10">
+        <v>0.029079428547613</v>
+      </c>
+      <c r="Q10">
+        <v>0.3638118445019999</v>
+      </c>
+      <c r="R10">
+        <v>3.274306600517999</v>
+      </c>
+      <c r="S10">
+        <v>0.0117976747331022</v>
+      </c>
+      <c r="T10">
+        <v>0.0117976747331022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.421522</v>
+      </c>
+      <c r="H11">
+        <v>1.264566</v>
+      </c>
+      <c r="I11">
+        <v>0.4057051779331001</v>
+      </c>
+      <c r="J11">
+        <v>0.4057051779331002</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.72809866666667</v>
+      </c>
+      <c r="N11">
+        <v>74.184296</v>
+      </c>
+      <c r="O11">
+        <v>0.833143872773158</v>
+      </c>
+      <c r="P11">
+        <v>0.8331438727731579</v>
+      </c>
+      <c r="Q11">
+        <v>10.42343760617067</v>
+      </c>
+      <c r="R11">
+        <v>93.81093845553599</v>
+      </c>
+      <c r="S11">
+        <v>0.3380107831473062</v>
+      </c>
+      <c r="T11">
+        <v>0.3380107831473062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.421522</v>
+      </c>
+      <c r="H12">
+        <v>1.264566</v>
+      </c>
+      <c r="I12">
+        <v>0.4057051779331001</v>
+      </c>
+      <c r="J12">
+        <v>0.4057051779331002</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.080109666666666</v>
+      </c>
+      <c r="N12">
+        <v>12.240329</v>
+      </c>
+      <c r="O12">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="P12">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="Q12">
+        <v>1.719855986912666</v>
+      </c>
+      <c r="R12">
+        <v>15.478703882214</v>
+      </c>
+      <c r="S12">
+        <v>0.05577141543906654</v>
+      </c>
+      <c r="T12">
+        <v>0.05577141543906655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.421522</v>
+      </c>
+      <c r="H13">
+        <v>1.264566</v>
+      </c>
+      <c r="I13">
+        <v>0.4057051779331001</v>
+      </c>
+      <c r="J13">
+        <v>0.4057051779331002</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009167</v>
+      </c>
+      <c r="N13">
+        <v>0.027501</v>
+      </c>
+      <c r="O13">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="P13">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="Q13">
+        <v>0.003864092173999999</v>
+      </c>
+      <c r="R13">
+        <v>0.034776829566</v>
+      </c>
+      <c r="S13">
+        <v>0.0001253046136251541</v>
+      </c>
+      <c r="T13">
+        <v>0.0001253046136251542</v>
       </c>
     </row>
   </sheetData>
